--- a/pred_ohlcv/54/2019-10-19 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 XEM ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>47.42499999999993</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -452,6 +460,9 @@
         <v>47.41499999999993</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -478,6 +489,9 @@
         <v>47.40333333333326</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -504,6 +518,9 @@
         <v>47.3916666666666</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -530,6 +547,9 @@
         <v>47.3816666666666</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -556,6 +576,9 @@
         <v>47.3716666666666</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,6 +605,9 @@
         <v>47.36333333333327</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,6 +634,9 @@
         <v>47.3516666666666</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -634,6 +663,9 @@
         <v>47.3416666666666</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,6 +692,9 @@
         <v>47.33499999999993</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,6 +721,9 @@
         <v>47.32333333333326</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -712,6 +750,9 @@
         <v>47.31333333333326</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,6 +779,9 @@
         <v>47.30333333333326</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -766,6 +810,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -792,6 +839,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -818,6 +868,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -844,6 +897,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -870,6 +926,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -896,6 +955,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -948,6 +1013,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -972,6 +1040,9 @@
         <v>47.22166666666661</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -998,6 +1069,9 @@
         <v>47.20999999999994</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1024,6 +1098,9 @@
         <v>47.20166666666661</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,6 +1127,9 @@
         <v>47.19166666666661</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1076,6 +1156,9 @@
         <v>47.17666666666661</v>
       </c>
       <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1104,6 +1187,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1128,6 +1214,9 @@
         <v>47.15333333333329</v>
       </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,6 +1243,9 @@
         <v>47.14499999999995</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1180,6 +1272,9 @@
         <v>47.13499999999996</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1206,6 +1301,9 @@
         <v>47.12333333333329</v>
       </c>
       <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1232,6 +1330,9 @@
         <v>47.11333333333329</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1258,6 +1359,9 @@
         <v>47.10833333333328</v>
       </c>
       <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,6 +1388,9 @@
         <v>47.10333333333328</v>
       </c>
       <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1310,6 +1417,9 @@
         <v>47.09833333333329</v>
       </c>
       <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1336,6 +1446,9 @@
         <v>47.09833333333329</v>
       </c>
       <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1362,6 +1475,9 @@
         <v>47.09833333333329</v>
       </c>
       <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1390,6 +1506,9 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1416,6 +1535,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1442,6 +1564,9 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1468,6 +1593,9 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1494,6 +1622,9 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1520,6 +1651,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1546,6 +1680,9 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1572,6 +1709,9 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1598,6 +1738,9 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1624,6 +1767,9 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1650,6 +1796,9 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1676,6 +1825,9 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1702,6 +1854,9 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1728,6 +1883,9 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +1912,9 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1780,6 +1941,9 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1806,551 +1970,8 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C56" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="D56" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E56" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="F56" t="n">
-        <v>6097.5517</v>
-      </c>
-      <c r="G56" t="n">
-        <v>47.4233333333333</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C57" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="D57" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E57" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>781.0855</v>
-      </c>
-      <c r="G57" t="n">
-        <v>47.45499999999997</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C58" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="D58" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E58" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4320</v>
-      </c>
-      <c r="G58" t="n">
-        <v>47.48666666666664</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="C59" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D59" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E59" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="F59" t="n">
-        <v>998.6291</v>
-      </c>
-      <c r="G59" t="n">
-        <v>47.51999999999997</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C60" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="D60" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G60" t="n">
-        <v>47.55666666666664</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="C61" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="D61" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="E61" t="n">
-        <v>48.7</v>
-      </c>
-      <c r="F61" t="n">
-        <v>15288.0657</v>
-      </c>
-      <c r="G61" t="n">
-        <v>47.5883333333333</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C62" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="D62" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E62" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="F62" t="n">
-        <v>7160</v>
-      </c>
-      <c r="G62" t="n">
-        <v>47.61999999999998</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="C63" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="D63" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="E63" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2229.8155</v>
-      </c>
-      <c r="G63" t="n">
-        <v>47.65166666666664</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="C64" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D64" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E64" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F64" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G64" t="n">
-        <v>47.6733333333333</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D65" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F65" t="n">
-        <v>11800</v>
-      </c>
-      <c r="G65" t="n">
-        <v>47.6883333333333</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C66" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D66" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E66" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>11000</v>
-      </c>
-      <c r="G66" t="n">
-        <v>47.70166666666664</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C67" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D67" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E67" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F67" t="n">
-        <v>710.1461</v>
-      </c>
-      <c r="G67" t="n">
-        <v>47.71499999999998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C68" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D68" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="E68" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F68" t="n">
-        <v>180.2557</v>
-      </c>
-      <c r="G68" t="n">
-        <v>47.72833333333332</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="C69" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="D69" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="E69" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="F69" t="n">
-        <v>270.9518</v>
-      </c>
-      <c r="G69" t="n">
-        <v>47.73999999999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C70" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="D70" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E70" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1953.2892</v>
-      </c>
-      <c r="G70" t="n">
-        <v>47.74666666666666</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="C71" t="n">
-        <v>48</v>
-      </c>
-      <c r="D71" t="n">
-        <v>48</v>
-      </c>
-      <c r="E71" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="F71" t="n">
-        <v>13533.4891</v>
-      </c>
-      <c r="G71" t="n">
-        <v>47.75999999999999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C72" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1803.4643</v>
-      </c>
-      <c r="G72" t="n">
-        <v>47.77499999999999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C73" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E73" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F73" t="n">
-        <v>765.1648</v>
-      </c>
-      <c r="G73" t="n">
-        <v>47.79333333333332</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C74" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="D74" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="E74" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="F74" t="n">
-        <v>675.1952</v>
-      </c>
-      <c r="G74" t="n">
-        <v>47.81333333333333</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C75" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D75" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E75" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F75" t="n">
-        <v>12429</v>
-      </c>
-      <c r="G75" t="n">
-        <v>47.82833333333333</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="C76" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="D76" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="E76" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="F76" t="n">
-        <v>848.9743999999999</v>
-      </c>
-      <c r="G76" t="n">
-        <v>47.84333333333332</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
+      <c r="I55" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
